--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D26736DC-689B-47EE-86B8-E81BA18EB73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Dataproviders\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C631BB2-4BE0-4FB2-9AC3-05E9A336470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Admin</t>
+    <t>admin123</t>
   </si>
   <si>
-    <t>admin123</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -62,9 +66,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,18 +352,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
